--- a/biology/Botanique/Musée_du_Tamarin/Musée_du_Tamarin.xlsx
+++ b/biology/Botanique/Musée_du_Tamarin/Musée_du_Tamarin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Tamarin</t>
+          <t>Musée_du_Tamarin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du Tamarin est un petit musée français à Salazie, dans les Hauts de l'île de La Réunion. Il est situé à 1 513 mètres d'altitude sur le plateau qui accueille la forêt de Bélouve, non loin de la station haute du téléphérique forestier Paul Charly ainsi que du gîte de Bélouve. Il traite du tamarin des Hauts et de son exploitation.
  Portail des musées   Portail du bois et de la forêt   Portail de La Réunion                   </t>
